--- a/Resources/Library Project Overview.xlsx
+++ b/Resources/Library Project Overview.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
   <si>
     <t>So that</t>
   </si>
@@ -663,9 +663,6 @@
     <t>View current borrows</t>
   </si>
   <si>
-    <t>Picss &amp; contact details for all group members</t>
-  </si>
-  <si>
     <t>Contact Admin</t>
   </si>
   <si>
@@ -676,6 +673,27 @@
   </si>
   <si>
     <t>Mark item as returned</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Logs in and redirects welcome page</t>
+  </si>
+  <si>
+    <t>Login fails, unrecognised username/password</t>
+  </si>
+  <si>
+    <t>Pics &amp; contact details for all group members</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Something went wrong, click here for home page</t>
   </si>
 </sst>
 </file>
@@ -891,7 +909,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -967,6 +985,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,6 +1011,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,26 +1041,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1578,14 +1604,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1594,10 +1620,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="7" t="s">
         <v>57</v>
       </c>
@@ -1606,10 +1632,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7" t="s">
         <v>66</v>
@@ -1789,210 +1815,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="18" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="49" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2044,7 +2132,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2057,10 +2145,10 @@
         <v>90</v>
       </c>
       <c r="E2" s="23"/>
-      <c r="F2" s="36"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -2071,10 +2159,10 @@
         <v>91</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="22" t="s">
         <v>122</v>
       </c>
@@ -2083,10 +2171,10 @@
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="22" t="s">
         <v>123</v>
       </c>
@@ -2095,10 +2183,10 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="22" t="s">
         <v>140</v>
       </c>
@@ -2109,10 +2197,10 @@
         <v>91</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="22" t="s">
         <v>141</v>
       </c>
@@ -2121,10 +2209,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="22" t="s">
         <v>130</v>
       </c>
@@ -2133,10 +2221,10 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="22" t="s">
         <v>131</v>
       </c>
@@ -2145,10 +2233,10 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="22" t="s">
         <v>132</v>
       </c>
@@ -2157,10 +2245,10 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="25" t="s">
         <v>139</v>
       </c>
@@ -2169,7 +2257,7 @@
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -2184,7 +2272,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -2197,10 +2285,10 @@
         <v>105</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="22" t="s">
         <v>133</v>
       </c>
@@ -2211,10 +2299,10 @@
         <v>106</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="37"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="22" t="s">
         <v>125</v>
       </c>
@@ -2225,10 +2313,10 @@
         <v>107</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="22" t="s">
         <v>126</v>
       </c>
@@ -2239,10 +2327,10 @@
         <v>108</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="22" t="s">
         <v>127</v>
       </c>
@@ -2251,10 +2339,10 @@
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="22" t="s">
         <v>135</v>
       </c>
@@ -2263,10 +2351,10 @@
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="22" t="s">
         <v>136</v>
       </c>
@@ -2275,10 +2363,10 @@
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="22" t="s">
         <v>128</v>
       </c>
@@ -2287,10 +2375,10 @@
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="22" t="s">
         <v>129</v>
       </c>
@@ -2299,10 +2387,10 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="22" t="s">
         <v>134</v>
       </c>
@@ -2311,10 +2399,10 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="22" t="s">
         <v>137</v>
       </c>
@@ -2323,10 +2411,10 @@
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="22" t="s">
         <v>138</v>
       </c>
@@ -2335,10 +2423,10 @@
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="27" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="22"/>

--- a/Resources/Library Project Overview.xlsx
+++ b/Resources/Library Project Overview.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="14720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="14720" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Functionality" sheetId="4" r:id="rId2"/>
     <sheet name="Web Pages" sheetId="5" r:id="rId3"/>
-    <sheet name="Class Attribute to DB Mappings" sheetId="6" r:id="rId4"/>
+    <sheet name="Forms" sheetId="7" r:id="rId4"/>
+    <sheet name="Class Attribute to DB Mappings" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
   <si>
     <t>So that</t>
   </si>
@@ -694,6 +695,15 @@
   </si>
   <si>
     <t>Something went wrong, click here for home page</t>
+  </si>
+  <si>
+    <t>Contact admin</t>
+  </si>
+  <si>
+    <t>Invite people to join</t>
+  </si>
+  <si>
+    <t>Requirement</t>
   </si>
 </sst>
 </file>
@@ -909,7 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -993,54 +1003,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1011,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1604,14 +1618,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1620,10 +1634,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="7" t="s">
         <v>57</v>
       </c>
@@ -1632,10 +1646,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7" t="s">
         <v>66</v>
@@ -1817,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1826,7 +1840,7 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1862,7 +1876,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1875,7 +1889,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="28" t="s">
         <v>146</v>
       </c>
@@ -1886,7 +1900,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1899,7 +1913,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="28" t="s">
         <v>149</v>
       </c>
@@ -1910,7 +1924,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="28" t="s">
         <v>160</v>
       </c>
@@ -1921,7 +1935,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="28" t="s">
         <v>150</v>
       </c>
@@ -1932,7 +1946,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="42" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1945,7 +1959,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="28" t="s">
         <v>155</v>
       </c>
@@ -1956,7 +1970,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>156</v>
       </c>
@@ -1967,7 +1981,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="28" t="s">
         <v>152</v>
       </c>
@@ -1978,7 +1992,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="28" t="s">
         <v>153</v>
       </c>
@@ -1989,7 +2003,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="28" t="s">
         <v>158</v>
       </c>
@@ -2000,7 +2014,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="28" t="s">
         <v>154</v>
       </c>
@@ -2011,7 +2025,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2024,7 +2038,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>23</v>
       </c>
@@ -2072,15 +2086,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="32" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="33" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2096,6 +2110,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2132,7 +2182,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2145,10 +2195,10 @@
         <v>90</v>
       </c>
       <c r="E2" s="23"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -2159,10 +2209,10 @@
         <v>91</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="45"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="22" t="s">
         <v>122</v>
       </c>
@@ -2171,10 +2221,10 @@
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="45"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="22" t="s">
         <v>123</v>
       </c>
@@ -2183,10 +2233,10 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="46"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="22" t="s">
         <v>140</v>
       </c>
@@ -2197,10 +2247,10 @@
         <v>91</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="45"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="22" t="s">
         <v>141</v>
       </c>
@@ -2209,10 +2259,10 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="22" t="s">
         <v>130</v>
       </c>
@@ -2221,10 +2271,10 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="45"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="22" t="s">
         <v>131</v>
       </c>
@@ -2233,10 +2283,10 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="45"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="22" t="s">
         <v>132</v>
       </c>
@@ -2245,10 +2295,10 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="45"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="25" t="s">
         <v>139</v>
       </c>
@@ -2257,7 +2307,7 @@
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="45"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
@@ -2272,7 +2322,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -2285,10 +2335,10 @@
         <v>105</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="22" t="s">
         <v>133</v>
       </c>
@@ -2299,10 +2349,10 @@
         <v>106</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="45"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="22" t="s">
         <v>125</v>
       </c>
@@ -2313,10 +2363,10 @@
         <v>107</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="22" t="s">
         <v>126</v>
       </c>
@@ -2327,10 +2377,10 @@
         <v>108</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="45"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="22" t="s">
         <v>127</v>
       </c>
@@ -2339,10 +2389,10 @@
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="22" t="s">
         <v>135</v>
       </c>
@@ -2351,10 +2401,10 @@
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="22" t="s">
         <v>136</v>
       </c>
@@ -2363,10 +2413,10 @@
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="22" t="s">
         <v>128</v>
       </c>
@@ -2375,10 +2425,10 @@
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="22" t="s">
         <v>129</v>
       </c>
@@ -2387,10 +2437,10 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="22" t="s">
         <v>134</v>
       </c>
@@ -2399,10 +2449,10 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="22" t="s">
         <v>137</v>
       </c>
@@ -2411,10 +2461,10 @@
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="45"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="22" t="s">
         <v>138</v>
       </c>
@@ -2423,7 +2473,7 @@
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
